--- a/datas/ecommercelink.xlsx
+++ b/datas/ecommercelink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\pythonProject\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C456C-1A3B-4B43-A0D6-7C96B021C630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DD1CF4-27AE-4C02-AAD3-2CBDC96B55AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +229,30 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="15"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -253,9 +277,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -598,250 +625,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1" xr:uid="{1E498F12-70B3-464F-917C-52A28208FCEF}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{EC15BF90-0BE3-48DD-8332-1FB3933D2B13}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C20 A21" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B1 A21 A3:B20 A2:B2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>